--- a/pwfa_lattice.xlsx
+++ b/pwfa_lattice.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmanwani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratikmanwani/PycharmProjects/elegant_plotter/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627B2E1A-3B65-9047-B2D5-C5094CC0AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>Element</t>
   </si>
@@ -122,13 +134,25 @@
     <t>Run 3</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 6</t>
+  </si>
+  <si>
+    <t>k(1/m2)</t>
+  </si>
+  <si>
+    <t>B'(T/m)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,16 +494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +531,31 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -569,8 +616,39 @@
         <f t="shared" ref="T2:T22" si="2">$N$23-S1</f>
         <v>6.6670000000000007</v>
       </c>
+      <c r="V2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>SUM($W$2:W2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Y22" si="3">$N$23-X1</f>
+        <v>6.6670000000000007</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>SUM($AB$2:AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <f t="shared" ref="AD2:AD22" si="4">$N$23-AC1</f>
+        <v>6.6670000000000007</v>
+      </c>
+      <c r="AE2">
+        <v>20.268999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -630,8 +708,40 @@
         <f t="shared" si="2"/>
         <v>6.6670000000000007</v>
       </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <v>0.54100000000000259</v>
+      </c>
+      <c r="X3">
+        <f>SUM($W$2:W3)</f>
+        <v>0.54100000000000259</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="3"/>
+        <v>6.6670000000000007</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3">
+        <v>0.54100000000000259</v>
+      </c>
+      <c r="AC3">
+        <f>SUM($AB$2:AB3)</f>
+        <v>0.54100000000000259</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="4"/>
+        <v>6.6670000000000007</v>
+      </c>
+      <c r="AE3">
+        <f>$AE$2+SUM($AB$2:AB3)</f>
+        <v>20.810000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -690,8 +800,44 @@
         <f t="shared" si="2"/>
         <v>6.1259999999999977</v>
       </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>0.12</v>
+      </c>
+      <c r="X4">
+        <f>SUM($W$2:W4)</f>
+        <v>0.66100000000000259</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>6.1259999999999977</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4">
+        <v>0.12</v>
+      </c>
+      <c r="AC4">
+        <f>SUM($AB$2:AB4)</f>
+        <v>0.66100000000000259</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="4"/>
+        <v>6.1259999999999977</v>
+      </c>
+      <c r="AE4">
+        <f>$AE$2+SUM($AB$2:AB4)</f>
+        <v>20.93</v>
+      </c>
+      <c r="AH4">
+        <f>(AG4*0.058)/0.2998</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -751,8 +897,40 @@
         <f t="shared" si="2"/>
         <v>6.0059999999999985</v>
       </c>
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5">
+        <v>8.9999999999997304E-2</v>
+      </c>
+      <c r="X5">
+        <f>SUM($W$2:W5)</f>
+        <v>0.75099999999999989</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>6.0059999999999985</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5">
+        <v>8.9999999999997304E-2</v>
+      </c>
+      <c r="AC5">
+        <f>SUM($AB$2:AB5)</f>
+        <v>0.75099999999999989</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="4"/>
+        <v>6.0059999999999985</v>
+      </c>
+      <c r="AE5">
+        <f>$AE$2+SUM($AB$2:AB5)</f>
+        <v>21.02</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -811,8 +989,44 @@
         <f t="shared" si="2"/>
         <v>5.9160000000000004</v>
       </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6">
+        <v>0.12</v>
+      </c>
+      <c r="X6">
+        <f>SUM($W$2:W6)</f>
+        <v>0.87099999999999989</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6">
+        <v>0.12</v>
+      </c>
+      <c r="AC6">
+        <f>SUM($AB$2:AB6)</f>
+        <v>0.87099999999999989</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="4"/>
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="AE6">
+        <f>$AE$2+SUM($AB$2:AB6)</f>
+        <v>21.139999999999997</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH5:AH24" si="5">(AG6*0.058)/0.2998</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -872,8 +1086,40 @@
         <f t="shared" si="2"/>
         <v>5.7960000000000012</v>
       </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7">
+        <v>1.7100000000000031</v>
+      </c>
+      <c r="X7">
+        <f>SUM($W$2:W7)</f>
+        <v>2.5810000000000031</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y21" si="6">$X$23-X6</f>
+        <v>5.78</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7">
+        <v>1.7100000000000031</v>
+      </c>
+      <c r="AC7">
+        <f>SUM($AB$2:AB7)</f>
+        <v>2.5810000000000031</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ref="AD7:AD21" si="7">$X$23-AC6</f>
+        <v>5.78</v>
+      </c>
+      <c r="AE7">
+        <f>$AE$2+SUM($AB$2:AB7)</f>
+        <v>22.85</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -920,8 +1166,34 @@
         <f t="shared" si="2"/>
         <v>4.0859999999999976</v>
       </c>
+      <c r="V8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <f>SUM($W$2:W8)</f>
+        <v>2.5810000000000031</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>4.0699999999999967</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <f>SUM($AB$2:AB8)</f>
+        <v>2.5810000000000031</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>4.0699999999999967</v>
+      </c>
+      <c r="AE8">
+        <f>$AE$2+SUM($AB$2:AB8)</f>
+        <v>22.85</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -981,8 +1253,40 @@
         <f t="shared" si="2"/>
         <v>4.0859999999999976</v>
       </c>
+      <c r="V9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>0.70999999999999952</v>
+      </c>
+      <c r="X9">
+        <f>SUM($W$2:W9)</f>
+        <v>3.2910000000000026</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>4.0699999999999967</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9">
+        <v>0.70999999999999952</v>
+      </c>
+      <c r="AC9">
+        <f>SUM($AB$2:AB9)</f>
+        <v>3.2910000000000026</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>4.0699999999999967</v>
+      </c>
+      <c r="AE9">
+        <f>$AE$2+SUM($AB$2:AB9)</f>
+        <v>23.560000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1345,44 @@
         <f t="shared" si="2"/>
         <v>3.3759999999999981</v>
       </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10">
+        <v>0.12</v>
+      </c>
+      <c r="X10">
+        <f>SUM($W$2:W10)</f>
+        <v>3.4110000000000027</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>3.3599999999999972</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10">
+        <v>0.12</v>
+      </c>
+      <c r="AC10">
+        <f>SUM($AB$2:AB10)</f>
+        <v>3.4110000000000027</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="7"/>
+        <v>3.3599999999999972</v>
+      </c>
+      <c r="AE10">
+        <f>$AE$2+SUM($AB$2:AB10)</f>
+        <v>23.68</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1442,40 @@
         <f t="shared" si="2"/>
         <v>3.255999999999998</v>
       </c>
+      <c r="V11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>0.13</v>
+      </c>
+      <c r="X11">
+        <f>SUM($W$2:W11)</f>
+        <v>3.5410000000000026</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>3.2399999999999971</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11">
+        <v>0.13</v>
+      </c>
+      <c r="AC11">
+        <f>SUM($AB$2:AB11)</f>
+        <v>3.5410000000000026</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="7"/>
+        <v>3.2399999999999971</v>
+      </c>
+      <c r="AE11">
+        <f>$AE$2+SUM($AB$2:AB11)</f>
+        <v>23.810000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1162,8 +1534,44 @@
         <f t="shared" si="2"/>
         <v>3.1259999999999981</v>
       </c>
+      <c r="V12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12">
+        <v>0.12</v>
+      </c>
+      <c r="X12">
+        <f>SUM($W$2:W12)</f>
+        <v>3.6610000000000027</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="6"/>
+        <v>3.1099999999999972</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB12">
+        <v>0.12</v>
+      </c>
+      <c r="AC12">
+        <f>SUM($AB$2:AB12)</f>
+        <v>3.6610000000000027</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="7"/>
+        <v>3.1099999999999972</v>
+      </c>
+      <c r="AE12">
+        <f>$AE$2+SUM($AB$2:AB12)</f>
+        <v>23.93</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1631,40 @@
         <f t="shared" si="2"/>
         <v>3.005999999999998</v>
       </c>
+      <c r="V13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13">
+        <v>0.13999999999999801</v>
+      </c>
+      <c r="X13">
+        <f>SUM($W$2:W13)</f>
+        <v>3.8010000000000006</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
+        <v>2.9899999999999971</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13">
+        <v>0.13999999999999801</v>
+      </c>
+      <c r="AC13">
+        <f>SUM($AB$2:AB13)</f>
+        <v>3.8010000000000006</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="7"/>
+        <v>2.9899999999999971</v>
+      </c>
+      <c r="AE13">
+        <f>$AE$2+SUM($AB$2:AB13)</f>
+        <v>24.07</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1283,8 +1723,44 @@
         <f t="shared" si="2"/>
         <v>2.8660000000000001</v>
       </c>
+      <c r="V14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14">
+        <v>0.12</v>
+      </c>
+      <c r="X14">
+        <f>SUM($W$2:W14)</f>
+        <v>3.9210000000000007</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>2.8499999999999992</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14">
+        <v>0.12</v>
+      </c>
+      <c r="AC14">
+        <f>SUM($AB$2:AB14)</f>
+        <v>3.9210000000000007</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="7"/>
+        <v>2.8499999999999992</v>
+      </c>
+      <c r="AE14">
+        <f>$AE$2+SUM($AB$2:AB14)</f>
+        <v>24.189999999999998</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1338,8 +1814,40 @@
         <f t="shared" si="2"/>
         <v>2.746</v>
       </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15">
+        <v>0.94</v>
+      </c>
+      <c r="X15">
+        <f>SUM($W$2:W15)</f>
+        <v>4.8610000000000007</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>2.7299999999999991</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15">
+        <v>0.94</v>
+      </c>
+      <c r="AC15">
+        <f>SUM($AB$2:AB15)</f>
+        <v>4.8610000000000007</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="7"/>
+        <v>2.7299999999999991</v>
+      </c>
+      <c r="AE15">
+        <f>$AE$2+SUM($AB$2:AB15)</f>
+        <v>25.13</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -1380,8 +1888,34 @@
         <f t="shared" si="2"/>
         <v>1.806</v>
       </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <f>SUM($W$2:W16)</f>
+        <v>4.8610000000000007</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <f>SUM($AB$2:AB16)</f>
+        <v>4.8610000000000007</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="7"/>
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="AE16">
+        <f>$AE$2+SUM($AB$2:AB16)</f>
+        <v>25.13</v>
+      </c>
     </row>
-    <row r="17" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -1435,8 +1969,40 @@
         <f t="shared" si="2"/>
         <v>1.806</v>
       </c>
+      <c r="V17" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>0.93</v>
+      </c>
+      <c r="X17">
+        <f>SUM($W$2:W17)</f>
+        <v>5.7910000000000004</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17">
+        <v>0.93</v>
+      </c>
+      <c r="AC17">
+        <f>SUM($AB$2:AB17)</f>
+        <v>5.7910000000000004</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="AE17">
+        <f>$AE$2+SUM($AB$2:AB17)</f>
+        <v>26.06</v>
+      </c>
     </row>
-    <row r="18" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -1489,8 +2055,44 @@
         <f t="shared" si="2"/>
         <v>0.87600000000000033</v>
       </c>
+      <c r="V18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>0.12</v>
+      </c>
+      <c r="X18">
+        <f>SUM($W$2:W18)</f>
+        <v>5.9110000000000005</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="6"/>
+        <v>0.85999999999999943</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB18">
+        <v>0.12</v>
+      </c>
+      <c r="AC18">
+        <f>SUM($AB$2:AB18)</f>
+        <v>5.9110000000000005</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="7"/>
+        <v>0.85999999999999943</v>
+      </c>
+      <c r="AE18">
+        <f>$AE$2+SUM($AB$2:AB18)</f>
+        <v>26.18</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -1544,8 +2146,40 @@
         <f t="shared" si="2"/>
         <v>0.75600000000000023</v>
       </c>
+      <c r="V19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19">
+        <v>0.1</v>
+      </c>
+      <c r="X19">
+        <f>SUM($W$2:W19)</f>
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>0.73999999999999932</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB19">
+        <v>0.1</v>
+      </c>
+      <c r="AC19">
+        <f>SUM($AB$2:AB19)</f>
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="7"/>
+        <v>0.73999999999999932</v>
+      </c>
+      <c r="AE19">
+        <f>$AE$2+SUM($AB$2:AB19)</f>
+        <v>26.279999999999998</v>
+      </c>
     </row>
-    <row r="20" spans="3:20" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1600,8 +2234,44 @@
         <f t="shared" si="2"/>
         <v>0.65600000000000058</v>
       </c>
+      <c r="V20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="X20">
+        <f>SUM($W$2:W20)</f>
+        <v>6.1310000000000002</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>0.63999999999999968</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AC20">
+        <f>SUM($AB$2:AB20)</f>
+        <v>6.1310000000000002</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="7"/>
+        <v>0.63999999999999968</v>
+      </c>
+      <c r="AE20">
+        <f>$AE$2+SUM($AB$2:AB20)</f>
+        <v>26.4</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -1655,8 +2325,40 @@
         <f t="shared" si="2"/>
         <v>0.53600000000000048</v>
       </c>
+      <c r="V21" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21">
+        <v>0.1</v>
+      </c>
+      <c r="X21">
+        <f>SUM($W$2:W21)</f>
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB21">
+        <v>0.1</v>
+      </c>
+      <c r="AC21">
+        <f>SUM($AB$2:AB21)</f>
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="AE21">
+        <f>$AE$2+SUM($AB$2:AB21)</f>
+        <v>26.5</v>
+      </c>
     </row>
-    <row r="22" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -1698,8 +2400,8 @@
       <c r="Q22" t="s">
         <v>29</v>
       </c>
-      <c r="R22" t="s">
-        <v>32</v>
+      <c r="R22">
+        <v>0.12</v>
       </c>
       <c r="S22">
         <f>SUM($M$2:M22)</f>
@@ -1709,8 +2411,44 @@
         <f t="shared" si="2"/>
         <v>0.42700000000000049</v>
       </c>
+      <c r="V22" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22">
+        <v>0.12</v>
+      </c>
+      <c r="X22">
+        <f>SUM($W$2:W22)</f>
+        <v>6.351</v>
+      </c>
+      <c r="Y22">
+        <f>$X$23-X21</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB22">
+        <v>0.12</v>
+      </c>
+      <c r="AC22">
+        <f>SUM($AB$2:AB22)</f>
+        <v>6.351</v>
+      </c>
+      <c r="AD22">
+        <f>$X$23-AC21</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="AE22">
+        <f>$AE$2+SUM($AB$2:AB22)</f>
+        <v>26.619999999999997</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -1764,8 +2502,44 @@
         <f>$N$23-S22</f>
         <v>0.30700000000000038</v>
       </c>
+      <c r="V23" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23">
+        <v>0.3</v>
+      </c>
+      <c r="X23">
+        <f>SUM($W$2:W23)</f>
+        <v>6.6509999999999998</v>
+      </c>
+      <c r="Y23">
+        <f>$X$23-X22</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB23">
+        <v>0.3</v>
+      </c>
+      <c r="AC23">
+        <f>SUM($AB$2:AB23)</f>
+        <v>6.6509999999999998</v>
+      </c>
+      <c r="AD23">
+        <f>$X$23-AC22</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AE23">
+        <f>$AE$2+SUM($AB$2:AB23)</f>
+        <v>26.919999999999998</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>9</v>
       </c>
@@ -1802,8 +2576,38 @@
       <c r="T24">
         <v>0</v>
       </c>
+      <c r="V24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>SUM($W$2:W24)</f>
+        <v>6.6509999999999998</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f>SUM($AB$2:AB24)</f>
+        <v>6.6509999999999998</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +2620,7 @@
         <v>7.7110000000000021</v>
       </c>
     </row>
-    <row r="26" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:34" ht="19" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>9</v>
       </c>
